--- a/Code/Results/Cases/Case_3_169/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_169/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.95819401671067</v>
+        <v>13.31978701593237</v>
       </c>
       <c r="C2">
-        <v>8.177632151589926</v>
+        <v>10.37321111750963</v>
       </c>
       <c r="D2">
-        <v>5.387900476790057</v>
+        <v>7.073850283782638</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.93111714903924</v>
+        <v>35.44839233106196</v>
       </c>
       <c r="G2">
-        <v>43.47326694390804</v>
+        <v>48.24358697157206</v>
       </c>
       <c r="H2">
-        <v>13.71665714598271</v>
+        <v>19.00721503665709</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.57650972984481</v>
+        <v>9.347028763936462</v>
       </c>
       <c r="L2">
-        <v>7.122229510667516</v>
+        <v>11.03307850501169</v>
       </c>
       <c r="M2">
-        <v>10.25619478775804</v>
+        <v>15.27909655777725</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.14628779030257</v>
+        <v>13.16507134068635</v>
       </c>
       <c r="C3">
-        <v>8.156196360323872</v>
+        <v>10.35896940173343</v>
       </c>
       <c r="D3">
-        <v>5.407916912137454</v>
+        <v>7.069099978129377</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.17547471916867</v>
+        <v>35.34764491734436</v>
       </c>
       <c r="G3">
-        <v>42.30508332083425</v>
+        <v>48.04538322495618</v>
       </c>
       <c r="H3">
-        <v>13.59593964782986</v>
+        <v>19.015798473328</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.960768250615395</v>
+        <v>9.239720896800051</v>
       </c>
       <c r="L3">
-        <v>7.020772392883107</v>
+        <v>11.04026037074701</v>
       </c>
       <c r="M3">
-        <v>9.95088359282029</v>
+        <v>15.26785055887856</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.64135472446533</v>
+        <v>13.07289434882427</v>
       </c>
       <c r="C4">
-        <v>8.14283053151342</v>
+        <v>10.34985501354155</v>
       </c>
       <c r="D4">
-        <v>5.419803562130754</v>
+        <v>7.06594675242521</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.72222598275503</v>
+        <v>35.29274539712124</v>
       </c>
       <c r="G4">
-        <v>41.60321313789026</v>
+        <v>47.93353176218789</v>
       </c>
       <c r="H4">
-        <v>13.52867758674706</v>
+        <v>19.02379531272618</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.563820809460621</v>
+        <v>9.175852918261226</v>
       </c>
       <c r="L4">
-        <v>6.961464328230376</v>
+        <v>11.04629671396224</v>
       </c>
       <c r="M4">
-        <v>9.764677767581539</v>
+        <v>15.26374542544712</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.43081780863865</v>
+        <v>13.03608688490337</v>
       </c>
       <c r="C5">
-        <v>8.137328493577323</v>
+        <v>10.34604770174722</v>
       </c>
       <c r="D5">
-        <v>5.42455456533289</v>
+        <v>7.064602318643523</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.54035499604555</v>
+        <v>35.27213575718156</v>
       </c>
       <c r="G5">
-        <v>41.32128111892366</v>
+        <v>47.89045450618994</v>
       </c>
       <c r="H5">
-        <v>13.50295338286466</v>
+        <v>19.02773964094423</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.397332133079342</v>
+        <v>9.150366656093398</v>
       </c>
       <c r="L5">
-        <v>6.938051720819291</v>
+        <v>11.04916596950729</v>
       </c>
       <c r="M5">
-        <v>9.689210923427312</v>
+        <v>15.26277915614193</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.39557539267032</v>
+        <v>13.03002198796123</v>
       </c>
       <c r="C6">
-        <v>8.136411430918489</v>
+        <v>10.34540987295567</v>
       </c>
       <c r="D6">
-        <v>5.425338095743201</v>
+        <v>7.064375484873548</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.51033043680451</v>
+        <v>35.26882030720304</v>
       </c>
       <c r="G6">
-        <v>41.27471954371228</v>
+        <v>47.88345347231627</v>
       </c>
       <c r="H6">
-        <v>13.49878252958554</v>
+        <v>19.02843599361254</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.369401972676023</v>
+        <v>9.146168256477438</v>
       </c>
       <c r="L6">
-        <v>6.934209844693037</v>
+        <v>11.04966714244239</v>
       </c>
       <c r="M6">
-        <v>9.676707633673495</v>
+        <v>15.26266145154418</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.63853443983204</v>
+        <v>13.07239483153562</v>
       </c>
       <c r="C7">
-        <v>8.142756558267248</v>
+        <v>10.34980404399695</v>
       </c>
       <c r="D7">
-        <v>5.419868001021659</v>
+        <v>7.065928861711559</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.71976156266334</v>
+        <v>35.29246029779563</v>
       </c>
       <c r="G7">
-        <v>41.5993940779426</v>
+        <v>47.93294063885499</v>
       </c>
       <c r="H7">
-        <v>13.52832388897592</v>
+        <v>19.02384573181144</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.561594600154436</v>
+        <v>9.175506971007675</v>
       </c>
       <c r="L7">
-        <v>6.961145511567675</v>
+        <v>11.0463337517074</v>
       </c>
       <c r="M7">
-        <v>9.763658188358415</v>
+        <v>15.26372952992704</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.66833912377839</v>
+        <v>13.26588432090421</v>
       </c>
       <c r="C8">
-        <v>8.170280923126455</v>
+        <v>10.36837728392232</v>
       </c>
       <c r="D8">
-        <v>5.394891212958813</v>
+        <v>7.072261470590798</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.66842837404531</v>
+        <v>35.4122180031178</v>
       </c>
       <c r="G8">
-        <v>43.06740798479171</v>
+        <v>48.173219952533</v>
       </c>
       <c r="H8">
-        <v>13.67358710810464</v>
+        <v>19.00960871331594</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.36812720232671</v>
+        <v>9.309629767159432</v>
       </c>
       <c r="L8">
-        <v>7.086630360504658</v>
+        <v>11.03521744536577</v>
       </c>
       <c r="M8">
-        <v>10.1507195713938</v>
+        <v>15.27463943886822</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.74198142809786</v>
+        <v>13.66557428014141</v>
       </c>
       <c r="C9">
-        <v>8.222840302555696</v>
+        <v>10.40186984811006</v>
       </c>
       <c r="D9">
-        <v>5.342294925858217</v>
+        <v>7.08280287976408</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.60803577525024</v>
+        <v>35.70166996508924</v>
       </c>
       <c r="G9">
-        <v>46.05944096317464</v>
+        <v>48.72119724626803</v>
       </c>
       <c r="H9">
-        <v>14.01456303693171</v>
+        <v>19.00332215487769</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.79982127351432</v>
+        <v>9.587187032531007</v>
       </c>
       <c r="L9">
-        <v>7.356159385050383</v>
+        <v>11.02630646812299</v>
       </c>
       <c r="M9">
-        <v>10.9157517267013</v>
+        <v>15.31812374386322</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.13427088228697</v>
+        <v>13.96868599558538</v>
       </c>
       <c r="C10">
-        <v>8.260915177691269</v>
+        <v>10.42469993061927</v>
       </c>
       <c r="D10">
-        <v>5.300822730184279</v>
+        <v>7.089403453867901</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.07438366123547</v>
+        <v>35.9466871539723</v>
       </c>
       <c r="G10">
-        <v>48.31610410221873</v>
+        <v>49.16861943110901</v>
       </c>
       <c r="H10">
-        <v>14.30156711794947</v>
+        <v>19.01188091924701</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.7609936295798</v>
+        <v>9.797945181483096</v>
       </c>
       <c r="L10">
-        <v>7.568141104625663</v>
+        <v>11.02758731961967</v>
       </c>
       <c r="M10">
-        <v>11.4767557035196</v>
+        <v>15.3633468812244</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.73766620390385</v>
+        <v>14.10801193545854</v>
       </c>
       <c r="C11">
-        <v>8.278202389242765</v>
+        <v>10.43470210063787</v>
       </c>
       <c r="D11">
-        <v>5.281189018012059</v>
+        <v>7.09215779786712</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.74924163123161</v>
+        <v>36.06494351241076</v>
       </c>
       <c r="G11">
-        <v>49.3536607140936</v>
+        <v>49.38141169154409</v>
       </c>
       <c r="H11">
-        <v>14.44054165800511</v>
+        <v>19.01862983899846</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.17891388326215</v>
+        <v>9.894872565591735</v>
       </c>
       <c r="L11">
-        <v>7.667541098340343</v>
+        <v>11.02986144049537</v>
       </c>
       <c r="M11">
-        <v>11.73092803031024</v>
+        <v>15.38675373591897</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.96193533257127</v>
+        <v>14.16092627282678</v>
       </c>
       <c r="C12">
-        <v>8.284751767528224</v>
+        <v>10.43843466860973</v>
       </c>
       <c r="D12">
-        <v>5.273629878368473</v>
+        <v>7.093165092490661</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.00584039114771</v>
+        <v>36.11067901375388</v>
       </c>
       <c r="G12">
-        <v>49.74803251122206</v>
+        <v>49.46327666852839</v>
       </c>
       <c r="H12">
-        <v>14.49441794783633</v>
+        <v>19.02159515531886</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.33443004619056</v>
+        <v>9.931691471607893</v>
       </c>
       <c r="L12">
-        <v>7.705603321383483</v>
+        <v>11.03096490123005</v>
       </c>
       <c r="M12">
-        <v>11.82697413688799</v>
+        <v>15.39602009452258</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.91382138796142</v>
+        <v>14.14952417117313</v>
       </c>
       <c r="C13">
-        <v>8.283340968611288</v>
+        <v>10.43763323966404</v>
       </c>
       <c r="D13">
-        <v>5.275263636168437</v>
+        <v>7.092949742200183</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.95053178464771</v>
+        <v>36.10078699097348</v>
       </c>
       <c r="G13">
-        <v>49.66303334471374</v>
+        <v>49.4455891819842</v>
       </c>
       <c r="H13">
-        <v>14.48275849697944</v>
+        <v>19.02093831997463</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.30105809331517</v>
+        <v>9.923757343678009</v>
       </c>
       <c r="L13">
-        <v>7.697387256091376</v>
+        <v>11.0307164908435</v>
       </c>
       <c r="M13">
-        <v>11.80629869725464</v>
+        <v>15.39400659119252</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.75620109794113</v>
+        <v>14.11236242780376</v>
       </c>
       <c r="C14">
-        <v>8.278741100107895</v>
+        <v>10.43501028375731</v>
       </c>
       <c r="D14">
-        <v>5.280569697750124</v>
+        <v>7.0922413844593</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.77033159181911</v>
+        <v>36.06868720945619</v>
       </c>
       <c r="G14">
-        <v>49.38607690743329</v>
+        <v>49.38812128829041</v>
       </c>
       <c r="H14">
-        <v>14.4449488149966</v>
+        <v>19.01886559374954</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.1917629866739</v>
+        <v>9.897899590850326</v>
       </c>
       <c r="L14">
-        <v>7.670664075190247</v>
+        <v>11.02994737253717</v>
       </c>
       <c r="M14">
-        <v>11.73883415497637</v>
+        <v>15.38750804389368</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.65910671291205</v>
+        <v>14.08961838431569</v>
       </c>
       <c r="C15">
-        <v>8.275924199958643</v>
+        <v>10.43339648277012</v>
       </c>
       <c r="D15">
-        <v>5.283803195722805</v>
+        <v>7.091802843333207</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.66008790291536</v>
+        <v>36.04914874702753</v>
       </c>
       <c r="G15">
-        <v>49.21662218815666</v>
+        <v>49.35308650194785</v>
       </c>
       <c r="H15">
-        <v>14.42195323835768</v>
+        <v>19.01764930472201</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.12446084013877</v>
+        <v>9.882074814232091</v>
       </c>
       <c r="L15">
-        <v>7.654350131346449</v>
+        <v>11.02950779053099</v>
       </c>
       <c r="M15">
-        <v>11.69748223329972</v>
+        <v>15.38357978541365</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.09424177697838</v>
+        <v>13.95960518768604</v>
       </c>
       <c r="C16">
-        <v>8.259785399385127</v>
+        <v>10.42403855884475</v>
       </c>
       <c r="D16">
-        <v>5.302089231969228</v>
+        <v>7.089218453720339</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.03043002532664</v>
+        <v>35.93909366232432</v>
       </c>
       <c r="G16">
-        <v>48.24850830496779</v>
+        <v>49.15489536164658</v>
       </c>
       <c r="H16">
-        <v>14.2926574830701</v>
+        <v>19.01149724336276</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.7332957579024</v>
+        <v>9.791628776700504</v>
       </c>
       <c r="L16">
-        <v>7.561704330375572</v>
+        <v>11.02747266010136</v>
       </c>
       <c r="M16">
-        <v>11.460119228275</v>
+        <v>15.36187381608932</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.74009972477726</v>
+        <v>13.8801774427313</v>
       </c>
       <c r="C17">
-        <v>8.249881551854871</v>
+        <v>10.41819965315328</v>
       </c>
       <c r="D17">
-        <v>5.313100988661876</v>
+        <v>7.087569412320128</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.64609248100434</v>
+        <v>35.87330339821581</v>
       </c>
       <c r="G17">
-        <v>47.65732709160964</v>
+        <v>49.0356506304466</v>
       </c>
       <c r="H17">
-        <v>14.21552169204631</v>
+        <v>19.00845389241189</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.48840384189116</v>
+        <v>9.736386349922256</v>
       </c>
       <c r="L17">
-        <v>7.505625226900507</v>
+        <v>11.02665677129639</v>
       </c>
       <c r="M17">
-        <v>11.31419788774639</v>
+        <v>15.34928054320089</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.53358077627034</v>
+        <v>13.83463123886274</v>
       </c>
       <c r="C18">
-        <v>8.244181466411177</v>
+        <v>10.41480518104753</v>
       </c>
       <c r="D18">
-        <v>5.319363291675621</v>
+        <v>7.086597557612794</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.4257700515427</v>
+        <v>35.83610380322587</v>
       </c>
       <c r="G18">
-        <v>47.31833391307549</v>
+        <v>48.96793851026416</v>
       </c>
       <c r="H18">
-        <v>14.17194484760026</v>
+        <v>19.00697228171916</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.34572707456495</v>
+        <v>9.704713605469278</v>
       </c>
       <c r="L18">
-        <v>7.473649655738559</v>
+        <v>11.02634676419727</v>
       </c>
       <c r="M18">
-        <v>11.23017335233645</v>
+        <v>15.34230435371124</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.46316917109581</v>
+        <v>13.81923547375309</v>
       </c>
       <c r="C19">
-        <v>8.242250663654517</v>
+        <v>10.41364967029715</v>
       </c>
       <c r="D19">
-        <v>5.321471744863639</v>
+        <v>7.086264490941209</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.35130223661557</v>
+        <v>35.82361946555094</v>
       </c>
       <c r="G19">
-        <v>47.20373896611007</v>
+        <v>48.94516387449666</v>
       </c>
       <c r="H19">
-        <v>14.157324913852</v>
+        <v>19.0065168341106</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.29710533781982</v>
+        <v>9.694008272538976</v>
       </c>
       <c r="L19">
-        <v>7.462871490330786</v>
+        <v>11.02626918241603</v>
       </c>
       <c r="M19">
-        <v>11.20170972827555</v>
+        <v>15.33998835891455</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.77809061208771</v>
+        <v>13.88861870486304</v>
       </c>
       <c r="C20">
-        <v>8.250936157623109</v>
+        <v>10.41882494897187</v>
       </c>
       <c r="D20">
-        <v>5.311936251209351</v>
+        <v>7.087747374349332</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.68693009208106</v>
+        <v>35.88024068133108</v>
       </c>
       <c r="G20">
-        <v>47.72015275780281</v>
+        <v>49.04825427529602</v>
       </c>
       <c r="H20">
-        <v>14.22365092415003</v>
+        <v>19.00875004424494</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.51466126903498</v>
+        <v>9.742256790301223</v>
       </c>
       <c r="L20">
-        <v>7.511566043838746</v>
+        <v>11.02672714651167</v>
       </c>
       <c r="M20">
-        <v>11.32974167224068</v>
+        <v>15.35059350627482</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.8026119163502</v>
+        <v>14.1232739492237</v>
       </c>
       <c r="C21">
-        <v>8.280092041634029</v>
+        <v>10.43578220245908</v>
       </c>
       <c r="D21">
-        <v>5.279014668584034</v>
+        <v>7.092450415696105</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.82323290922119</v>
+        <v>36.07808998245768</v>
       </c>
       <c r="G21">
-        <v>49.46738645700513</v>
+        <v>49.40496650178197</v>
       </c>
       <c r="H21">
-        <v>14.45602019584064</v>
+        <v>19.01946329478696</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.22393966653884</v>
+        <v>9.905491819481902</v>
       </c>
       <c r="L21">
-        <v>7.678501912956031</v>
+        <v>11.03016671322972</v>
       </c>
       <c r="M21">
-        <v>11.75865603219889</v>
+        <v>15.38940593703677</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.4476213828466</v>
+        <v>14.27751232332937</v>
       </c>
       <c r="C22">
-        <v>8.299169470891259</v>
+        <v>10.44654399372238</v>
       </c>
       <c r="D22">
-        <v>5.256766741332705</v>
+        <v>7.095315942611971</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.57194305183409</v>
+        <v>36.21294709976146</v>
       </c>
       <c r="G22">
-        <v>50.61786108555422</v>
+        <v>49.64556647369531</v>
       </c>
       <c r="H22">
-        <v>14.61519067179519</v>
+        <v>19.02885215592837</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.67153940084768</v>
+        <v>10.0128267332902</v>
       </c>
       <c r="L22">
-        <v>7.790060400950518</v>
+        <v>11.03382647003686</v>
       </c>
       <c r="M22">
-        <v>12.03777292909175</v>
+        <v>15.41711673566057</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.10558654108999</v>
+        <v>14.19512917272679</v>
       </c>
       <c r="C23">
-        <v>8.28898257821802</v>
+        <v>10.44082954261784</v>
       </c>
       <c r="D23">
-        <v>5.268712756913777</v>
+        <v>7.093805609138085</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.17180642018091</v>
+        <v>36.14047137222486</v>
       </c>
       <c r="G23">
-        <v>50.00307364099431</v>
+        <v>49.51648625827615</v>
       </c>
       <c r="H23">
-        <v>14.52955652075024</v>
+        <v>19.02362309768704</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.43409247351101</v>
+        <v>9.955492465232201</v>
       </c>
       <c r="L23">
-        <v>7.730296082550934</v>
+        <v>11.0317443454543</v>
       </c>
       <c r="M23">
-        <v>11.88892843274631</v>
+        <v>15.4021141544556</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.76092402712028</v>
+        <v>13.88480203911873</v>
       </c>
       <c r="C24">
-        <v>8.250459390346958</v>
+        <v>10.41854236989145</v>
       </c>
       <c r="D24">
-        <v>5.312463041349448</v>
+        <v>7.087666991823347</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.66846541355866</v>
+        <v>35.87710238977251</v>
       </c>
       <c r="G24">
-        <v>47.69174650947007</v>
+        <v>49.04255353716059</v>
       </c>
       <c r="H24">
-        <v>14.21997330430998</v>
+        <v>19.00861531890383</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.50279616074903</v>
+        <v>9.739602490825748</v>
       </c>
       <c r="L24">
-        <v>7.508879374497848</v>
+        <v>11.02669483435821</v>
       </c>
       <c r="M24">
-        <v>11.32271473538714</v>
+        <v>15.34999909342383</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.20215233424867</v>
+        <v>13.55557520074334</v>
       </c>
       <c r="C25">
-        <v>8.208742143553392</v>
+        <v>10.39312192021396</v>
       </c>
       <c r="D25">
-        <v>5.356972332634076</v>
+        <v>7.080152087152469</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.07560018028573</v>
+        <v>35.61760884469169</v>
       </c>
       <c r="G25">
-        <v>45.23906566713108</v>
+        <v>48.56492744620828</v>
       </c>
       <c r="H25">
-        <v>13.91607457985962</v>
+        <v>19.00270719330184</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.42852558259183</v>
+        <v>9.510751537907359</v>
       </c>
       <c r="L25">
-        <v>7.280768133384442</v>
+        <v>11.02733995020547</v>
       </c>
       <c r="M25">
-        <v>10.70866829248155</v>
+        <v>15.30401336444766</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_169/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_169/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.31978701593237</v>
+        <v>12.95819401671061</v>
       </c>
       <c r="C2">
-        <v>10.37321111750963</v>
+        <v>8.177632151590196</v>
       </c>
       <c r="D2">
-        <v>7.073850283782638</v>
+        <v>5.387900476790193</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.44839233106196</v>
+        <v>29.93111714903921</v>
       </c>
       <c r="G2">
-        <v>48.24358697157206</v>
+        <v>43.47326694390807</v>
       </c>
       <c r="H2">
-        <v>19.00721503665709</v>
+        <v>13.71665714598271</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.347028763936462</v>
+        <v>10.57650972984481</v>
       </c>
       <c r="L2">
-        <v>11.03307850501169</v>
+        <v>7.12222951066748</v>
       </c>
       <c r="M2">
-        <v>15.27909655777725</v>
+        <v>10.25619478775805</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.16507134068635</v>
+        <v>12.14628779030259</v>
       </c>
       <c r="C3">
-        <v>10.35896940173343</v>
+        <v>8.156196360323875</v>
       </c>
       <c r="D3">
-        <v>7.069099978129377</v>
+        <v>5.407916912137453</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.34764491734436</v>
+        <v>29.17547471916888</v>
       </c>
       <c r="G3">
-        <v>48.04538322495618</v>
+        <v>42.3050833208346</v>
       </c>
       <c r="H3">
-        <v>19.015798473328</v>
+        <v>13.59593964782999</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.239720896800051</v>
+        <v>9.960768250615343</v>
       </c>
       <c r="L3">
-        <v>11.04026037074701</v>
+        <v>7.020772392883054</v>
       </c>
       <c r="M3">
-        <v>15.26785055887856</v>
+        <v>9.950883592820325</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.07289434882427</v>
+        <v>11.64135472446533</v>
       </c>
       <c r="C4">
-        <v>10.34985501354155</v>
+        <v>8.142830531513692</v>
       </c>
       <c r="D4">
-        <v>7.06594675242521</v>
+        <v>5.419803562130687</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.29274539712124</v>
+        <v>28.72222598275498</v>
       </c>
       <c r="G4">
-        <v>47.93353176218789</v>
+        <v>41.60321313789006</v>
       </c>
       <c r="H4">
-        <v>19.02379531272618</v>
+        <v>13.52867758674704</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.175852918261226</v>
+        <v>9.563820809460623</v>
       </c>
       <c r="L4">
-        <v>11.04629671396224</v>
+        <v>6.961464328230342</v>
       </c>
       <c r="M4">
-        <v>15.26374542544712</v>
+        <v>9.764677767581556</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.03608688490337</v>
+        <v>11.43081780863864</v>
       </c>
       <c r="C5">
-        <v>10.34604770174722</v>
+        <v>8.13732849357705</v>
       </c>
       <c r="D5">
-        <v>7.064602318643523</v>
+        <v>5.424554565332958</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.27213575718156</v>
+        <v>28.54035499604549</v>
       </c>
       <c r="G5">
-        <v>47.89045450618994</v>
+        <v>41.32128111892359</v>
       </c>
       <c r="H5">
-        <v>19.02773964094423</v>
+        <v>13.50295338286466</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.150366656093398</v>
+        <v>9.397332133079326</v>
       </c>
       <c r="L5">
-        <v>11.04916596950729</v>
+        <v>6.938051720819366</v>
       </c>
       <c r="M5">
-        <v>15.26277915614193</v>
+        <v>9.689210923427336</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.03002198796123</v>
+        <v>11.3955753926703</v>
       </c>
       <c r="C6">
-        <v>10.34540987295567</v>
+        <v>8.136411430918219</v>
       </c>
       <c r="D6">
-        <v>7.064375484873548</v>
+        <v>5.425338095743066</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.26882030720304</v>
+        <v>28.51033043680448</v>
       </c>
       <c r="G6">
-        <v>47.88345347231627</v>
+        <v>41.27471954371214</v>
       </c>
       <c r="H6">
-        <v>19.02843599361254</v>
+        <v>13.49878252958555</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.146168256477438</v>
+        <v>9.369401972676055</v>
       </c>
       <c r="L6">
-        <v>11.04966714244239</v>
+        <v>6.934209844693084</v>
       </c>
       <c r="M6">
-        <v>15.26266145154418</v>
+        <v>9.676707633673484</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.07239483153562</v>
+        <v>11.63853443983207</v>
       </c>
       <c r="C7">
-        <v>10.34980404399695</v>
+        <v>8.142756558267383</v>
       </c>
       <c r="D7">
-        <v>7.065928861711559</v>
+        <v>5.419868001021658</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.29246029779563</v>
+        <v>28.7197615626635</v>
       </c>
       <c r="G7">
-        <v>47.93294063885499</v>
+        <v>41.59939407794293</v>
       </c>
       <c r="H7">
-        <v>19.02384573181144</v>
+        <v>13.52832388897595</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.175506971007675</v>
+        <v>9.561594600154368</v>
       </c>
       <c r="L7">
-        <v>11.0463337517074</v>
+        <v>6.961145511567568</v>
       </c>
       <c r="M7">
-        <v>15.26372952992704</v>
+        <v>9.76365818835845</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.26588432090421</v>
+        <v>12.6683391237784</v>
       </c>
       <c r="C8">
-        <v>10.36837728392232</v>
+        <v>8.170280923126318</v>
       </c>
       <c r="D8">
-        <v>7.072261470590798</v>
+        <v>5.394891212958944</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.4122180031178</v>
+        <v>29.66842837404558</v>
       </c>
       <c r="G8">
-        <v>48.173219952533</v>
+        <v>43.06740798479219</v>
       </c>
       <c r="H8">
-        <v>19.00960871331594</v>
+        <v>13.67358710810475</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.309629767159432</v>
+        <v>10.36812720232664</v>
       </c>
       <c r="L8">
-        <v>11.03521744536577</v>
+        <v>7.08663036050473</v>
       </c>
       <c r="M8">
-        <v>15.27463943886822</v>
+        <v>10.15071957139385</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.66557428014141</v>
+        <v>14.74198142809793</v>
       </c>
       <c r="C9">
-        <v>10.40186984811006</v>
+        <v>8.222840302555552</v>
       </c>
       <c r="D9">
-        <v>7.08280287976408</v>
+        <v>5.342294925858147</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.70166996508924</v>
+        <v>31.60803577525028</v>
       </c>
       <c r="G9">
-        <v>48.72119724626803</v>
+        <v>46.05944096317459</v>
       </c>
       <c r="H9">
-        <v>19.00332215487769</v>
+        <v>14.01456303693178</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.587187032531007</v>
+        <v>11.79982127351436</v>
       </c>
       <c r="L9">
-        <v>11.02630646812299</v>
+        <v>7.356159385050402</v>
       </c>
       <c r="M9">
-        <v>15.31812374386322</v>
+        <v>10.91575172670129</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.96868599558538</v>
+        <v>16.13427088228689</v>
       </c>
       <c r="C10">
-        <v>10.42469993061927</v>
+        <v>8.260915177691807</v>
       </c>
       <c r="D10">
-        <v>7.089403453867901</v>
+        <v>5.300822730184275</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.9466871539723</v>
+        <v>33.07438366123539</v>
       </c>
       <c r="G10">
-        <v>49.16861943110901</v>
+        <v>48.31610410221862</v>
       </c>
       <c r="H10">
-        <v>19.01188091924701</v>
+        <v>14.30156711794945</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.797945181483096</v>
+        <v>12.76099362957988</v>
       </c>
       <c r="L10">
-        <v>11.02758731961967</v>
+        <v>7.56814110462564</v>
       </c>
       <c r="M10">
-        <v>15.3633468812244</v>
+        <v>11.47675570351961</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.10801193545854</v>
+        <v>16.73766620390396</v>
       </c>
       <c r="C11">
-        <v>10.43470210063787</v>
+        <v>8.278202389242226</v>
       </c>
       <c r="D11">
-        <v>7.09215779786712</v>
+        <v>5.281189018012125</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.06494351241076</v>
+        <v>33.74924163123158</v>
       </c>
       <c r="G11">
-        <v>49.38141169154409</v>
+        <v>49.35366071409366</v>
       </c>
       <c r="H11">
-        <v>19.01862983899846</v>
+        <v>14.44054165800505</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.894872565591735</v>
+        <v>13.17891388326221</v>
       </c>
       <c r="L11">
-        <v>11.02986144049537</v>
+        <v>7.667541098340375</v>
       </c>
       <c r="M11">
-        <v>15.38675373591897</v>
+        <v>11.73092803031019</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.16092627282678</v>
+        <v>16.96193533257124</v>
       </c>
       <c r="C12">
-        <v>10.43843466860973</v>
+        <v>8.284751767527826</v>
       </c>
       <c r="D12">
-        <v>7.093165092490661</v>
+        <v>5.273629878368542</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.11067901375388</v>
+        <v>34.00584039114767</v>
       </c>
       <c r="G12">
-        <v>49.46327666852839</v>
+        <v>49.748032511222</v>
       </c>
       <c r="H12">
-        <v>19.02159515531886</v>
+        <v>14.49441794783631</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.931691471607893</v>
+        <v>13.3344300461905</v>
       </c>
       <c r="L12">
-        <v>11.03096490123005</v>
+        <v>7.70560332138356</v>
       </c>
       <c r="M12">
-        <v>15.39602009452258</v>
+        <v>11.82697413688802</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.14952417117313</v>
+        <v>16.91382138796149</v>
       </c>
       <c r="C13">
-        <v>10.43763323966404</v>
+        <v>8.283340968611414</v>
       </c>
       <c r="D13">
-        <v>7.092949742200183</v>
+        <v>5.275263636168368</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.10078699097348</v>
+        <v>33.95053178464759</v>
       </c>
       <c r="G13">
-        <v>49.4455891819842</v>
+        <v>49.66303334471366</v>
       </c>
       <c r="H13">
-        <v>19.02093831997463</v>
+        <v>14.48275849697935</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.923757343678009</v>
+        <v>13.30105809331525</v>
       </c>
       <c r="L13">
-        <v>11.0307164908435</v>
+        <v>7.697387256091452</v>
       </c>
       <c r="M13">
-        <v>15.39400659119252</v>
+        <v>11.80629869725463</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.11236242780376</v>
+        <v>16.75620109794104</v>
       </c>
       <c r="C14">
-        <v>10.43501028375731</v>
+        <v>8.278741100107895</v>
       </c>
       <c r="D14">
-        <v>7.0922413844593</v>
+        <v>5.280569697750191</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.06868720945619</v>
+        <v>33.77033159181936</v>
       </c>
       <c r="G14">
-        <v>49.38812128829041</v>
+        <v>49.38607690743363</v>
       </c>
       <c r="H14">
-        <v>19.01886559374954</v>
+        <v>14.44494881499679</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.897899590850326</v>
+        <v>13.19176298667379</v>
       </c>
       <c r="L14">
-        <v>11.02994737253717</v>
+        <v>7.670664075190239</v>
       </c>
       <c r="M14">
-        <v>15.38750804389368</v>
+        <v>11.7388341549764</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.08961838431569</v>
+        <v>16.65910671291217</v>
       </c>
       <c r="C15">
-        <v>10.43339648277012</v>
+        <v>8.275924199958228</v>
       </c>
       <c r="D15">
-        <v>7.091802843333207</v>
+        <v>5.2838031957228</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.04914874702753</v>
+        <v>33.66008790291542</v>
       </c>
       <c r="G15">
-        <v>49.35308650194785</v>
+        <v>49.21662218815686</v>
       </c>
       <c r="H15">
-        <v>19.01764930472201</v>
+        <v>14.42195323835768</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.882074814232091</v>
+        <v>13.12446084013876</v>
       </c>
       <c r="L15">
-        <v>11.02950779053099</v>
+        <v>7.654350131346437</v>
       </c>
       <c r="M15">
-        <v>15.38357978541365</v>
+        <v>11.6974822332997</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.95960518768604</v>
+        <v>16.09424177697842</v>
       </c>
       <c r="C16">
-        <v>10.42403855884475</v>
+        <v>8.259785399385123</v>
       </c>
       <c r="D16">
-        <v>7.089218453720339</v>
+        <v>5.30208923196943</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.93909366232432</v>
+        <v>33.0304300253265</v>
       </c>
       <c r="G16">
-        <v>49.15489536164658</v>
+        <v>48.24850830496764</v>
       </c>
       <c r="H16">
-        <v>19.01149724336276</v>
+        <v>14.29265748306999</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.791628776700504</v>
+        <v>12.73329575790246</v>
       </c>
       <c r="L16">
-        <v>11.02747266010136</v>
+        <v>7.561704330375632</v>
       </c>
       <c r="M16">
-        <v>15.36187381608932</v>
+        <v>11.460119228275</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.8801774427313</v>
+        <v>15.7400997247773</v>
       </c>
       <c r="C17">
-        <v>10.41819965315328</v>
+        <v>8.249881551854997</v>
       </c>
       <c r="D17">
-        <v>7.087569412320128</v>
+        <v>5.313100988662005</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.87330339821581</v>
+        <v>32.64609248100426</v>
       </c>
       <c r="G17">
-        <v>49.0356506304466</v>
+        <v>47.65732709160956</v>
       </c>
       <c r="H17">
-        <v>19.00845389241189</v>
+        <v>14.21552169204628</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.736386349922256</v>
+        <v>12.48840384189119</v>
       </c>
       <c r="L17">
-        <v>11.02665677129639</v>
+        <v>7.505625226900446</v>
       </c>
       <c r="M17">
-        <v>15.34928054320089</v>
+        <v>11.31419788774637</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.83463123886274</v>
+        <v>15.53358077627033</v>
       </c>
       <c r="C18">
-        <v>10.41480518104753</v>
+        <v>8.244181466411581</v>
       </c>
       <c r="D18">
-        <v>7.086597557612794</v>
+        <v>5.319363291675558</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.83610380322587</v>
+        <v>32.42577005154258</v>
       </c>
       <c r="G18">
-        <v>48.96793851026416</v>
+        <v>47.31833391307531</v>
       </c>
       <c r="H18">
-        <v>19.00697228171916</v>
+        <v>14.17194484760021</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.704713605469278</v>
+        <v>12.345727074565</v>
       </c>
       <c r="L18">
-        <v>11.02634676419727</v>
+        <v>7.473649655738581</v>
       </c>
       <c r="M18">
-        <v>15.34230435371124</v>
+        <v>11.23017335233645</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.81923547375309</v>
+        <v>15.46316917109579</v>
       </c>
       <c r="C19">
-        <v>10.41364967029715</v>
+        <v>8.242250663654117</v>
       </c>
       <c r="D19">
-        <v>7.086264490941209</v>
+        <v>5.321471744863706</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.82361946555094</v>
+        <v>32.35130223661572</v>
       </c>
       <c r="G19">
-        <v>48.94516387449666</v>
+        <v>47.20373896611014</v>
       </c>
       <c r="H19">
-        <v>19.0065168341106</v>
+        <v>14.15732491385209</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.694008272538976</v>
+        <v>12.29710533781972</v>
       </c>
       <c r="L19">
-        <v>11.02626918241603</v>
+        <v>7.462871490330782</v>
       </c>
       <c r="M19">
-        <v>15.33998835891455</v>
+        <v>11.20170972827554</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.88861870486304</v>
+        <v>15.7780906120878</v>
       </c>
       <c r="C20">
-        <v>10.41882494897187</v>
+        <v>8.250936157622972</v>
       </c>
       <c r="D20">
-        <v>7.087747374349332</v>
+        <v>5.311936251209215</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.88024068133108</v>
+        <v>32.68693009208113</v>
       </c>
       <c r="G20">
-        <v>49.04825427529602</v>
+        <v>47.72015275780291</v>
       </c>
       <c r="H20">
-        <v>19.00875004424494</v>
+        <v>14.22365092415004</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.742256790301223</v>
+        <v>12.514661269035</v>
       </c>
       <c r="L20">
-        <v>11.02672714651167</v>
+        <v>7.511566043838815</v>
       </c>
       <c r="M20">
-        <v>15.35059350627482</v>
+        <v>11.3297416722407</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.1232739492237</v>
+        <v>16.80261191635017</v>
       </c>
       <c r="C21">
-        <v>10.43578220245908</v>
+        <v>8.280092041634033</v>
       </c>
       <c r="D21">
-        <v>7.092450415696105</v>
+        <v>5.279014668583968</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.07808998245768</v>
+        <v>33.82323290922123</v>
       </c>
       <c r="G21">
-        <v>49.40496650178197</v>
+        <v>49.46738645700514</v>
       </c>
       <c r="H21">
-        <v>19.01946329478696</v>
+        <v>14.45602019584064</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.905491819481902</v>
+        <v>13.22393966653883</v>
       </c>
       <c r="L21">
-        <v>11.03016671322972</v>
+        <v>7.678501912956001</v>
       </c>
       <c r="M21">
-        <v>15.38940593703677</v>
+        <v>11.75865603219888</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.27751232332937</v>
+        <v>17.44762138284668</v>
       </c>
       <c r="C22">
-        <v>10.44654399372238</v>
+        <v>8.299169470890853</v>
       </c>
       <c r="D22">
-        <v>7.095315942611971</v>
+        <v>5.256766741332838</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.21294709976146</v>
+        <v>34.57194305183413</v>
       </c>
       <c r="G22">
-        <v>49.64556647369531</v>
+        <v>50.6178610855543</v>
       </c>
       <c r="H22">
-        <v>19.02885215592837</v>
+        <v>14.61519067179521</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.0128267332902</v>
+        <v>13.67153940084768</v>
       </c>
       <c r="L22">
-        <v>11.03382647003686</v>
+        <v>7.790060400950603</v>
       </c>
       <c r="M22">
-        <v>15.41711673566057</v>
+        <v>12.03777292909175</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.19512917272679</v>
+        <v>17.10558654109001</v>
       </c>
       <c r="C23">
-        <v>10.44082954261784</v>
+        <v>8.28898257821802</v>
       </c>
       <c r="D23">
-        <v>7.093805609138085</v>
+        <v>5.268712756913711</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.14047137222486</v>
+        <v>34.17180642018095</v>
       </c>
       <c r="G23">
-        <v>49.51648625827615</v>
+        <v>50.00307364099427</v>
       </c>
       <c r="H23">
-        <v>19.02362309768704</v>
+        <v>14.52955652075029</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.955492465232201</v>
+        <v>13.43409247351104</v>
       </c>
       <c r="L23">
-        <v>11.0317443454543</v>
+        <v>7.730296082550928</v>
       </c>
       <c r="M23">
-        <v>15.4021141544556</v>
+        <v>11.88892843274629</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.88480203911873</v>
+        <v>15.76092402712029</v>
       </c>
       <c r="C24">
-        <v>10.41854236989145</v>
+        <v>8.250459390347091</v>
       </c>
       <c r="D24">
-        <v>7.087666991823347</v>
+        <v>5.312463041349514</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.87710238977251</v>
+        <v>32.66846541355856</v>
       </c>
       <c r="G24">
-        <v>49.04255353716059</v>
+        <v>47.69174650946994</v>
       </c>
       <c r="H24">
-        <v>19.00861531890383</v>
+        <v>14.2199733043099</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.739602490825748</v>
+        <v>12.50279616074908</v>
       </c>
       <c r="L24">
-        <v>11.02669483435821</v>
+        <v>7.508879374497813</v>
       </c>
       <c r="M24">
-        <v>15.34999909342383</v>
+        <v>11.3227147353871</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.55557520074334</v>
+        <v>14.20215233424863</v>
       </c>
       <c r="C25">
-        <v>10.39312192021396</v>
+        <v>8.208742143553254</v>
       </c>
       <c r="D25">
-        <v>7.080152087152469</v>
+        <v>5.356972332633808</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.61760884469169</v>
+        <v>31.07560018028585</v>
       </c>
       <c r="G25">
-        <v>48.56492744620828</v>
+        <v>45.23906566713119</v>
       </c>
       <c r="H25">
-        <v>19.00270719330184</v>
+        <v>13.91607457985961</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.510751537907359</v>
+        <v>11.42852558259181</v>
       </c>
       <c r="L25">
-        <v>11.02733995020547</v>
+        <v>7.280768133384384</v>
       </c>
       <c r="M25">
-        <v>15.30401336444766</v>
+        <v>10.70866829248153</v>
       </c>
       <c r="N25">
         <v>0</v>
